--- a/200_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
+++ b/200_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.103\landisk\サントク\202205姫路市VBA\10_仕様書\30_詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FE7B0E-200C-48D5-BB75-545411178ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F66479-52CF-4184-A979-024BAD74BBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="14235" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
   <si>
     <t>作成者</t>
   </si>
@@ -852,6 +852,125 @@
     <t>藤城</t>
     <rPh sb="0" eb="2">
       <t>フジシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行名</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行コード</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店コード</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預金種類</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座番号</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座名義</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行コードの入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行名の入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名の入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店コードの入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座番号の入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座名義の入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預金種類選択（当座・普通）</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウザ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フツウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1395,6 +1514,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1404,20 +1538,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1425,29 +1562,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1464,34 +1604,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1513,6 +1631,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1529,15 +1657,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1632,22 +1751,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>96492</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>17886</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF170883-B854-4164-B352-0CAF1CE8D282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B970C500-17F6-813B-F860-3EC269AA0CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,8 +1782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="809625"/>
-          <a:ext cx="7525991" cy="3942186"/>
+          <a:off x="85726" y="857250"/>
+          <a:ext cx="7334250" cy="4196291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,7 +2063,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -1977,50 +2096,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2043,10 +2162,10 @@
         <v>19</v>
       </c>
       <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2069,42 +2188,42 @@
         <v>21</v>
       </c>
       <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="48"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="47" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="47" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="N17" s="7" t="s">
         <v>86</v>
       </c>
@@ -2134,12 +2253,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2148,6 +2261,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2176,52 +2295,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2247,427 +2366,427 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2678,14 +2797,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2702,62 +2869,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2773,8 +2892,8 @@
   </sheetPr>
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AI1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AU34" sqref="AU34:BF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2783,210 +2902,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="67" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68" t="s">
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="71" t="s">
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="71" t="s">
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="67" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="71" t="s">
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="73">
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="79">
         <v>44752</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="71" t="s">
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="74" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="76"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="72"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -2997,434 +3116,434 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="77" t="s">
+      <c r="AO5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="78" t="s">
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AV5" s="78"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="78"/>
-      <c r="BB5" s="78"/>
-      <c r="BC5" s="78"/>
-      <c r="BD5" s="78"/>
-      <c r="BE5" s="78"/>
-      <c r="BF5" s="79"/>
+      <c r="AV5" s="68"/>
+      <c r="AW5" s="68"/>
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68"/>
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="68"/>
+      <c r="BB5" s="68"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="69"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78"/>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="78"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="78"/>
-      <c r="BD6" s="78"/>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="79"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="69"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="77" t="s">
+      <c r="AO7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="78" t="s">
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="78"/>
-      <c r="BF7" s="79"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="69"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="78"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="78"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="79"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="69"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="77" t="s">
+      <c r="AO9" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="59"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="78" t="s">
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="78"/>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="78"/>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="78"/>
-      <c r="BE9" s="78"/>
-      <c r="BF9" s="79"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="68"/>
+      <c r="AZ9" s="68"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="68"/>
+      <c r="BC9" s="68"/>
+      <c r="BD9" s="68"/>
+      <c r="BE9" s="68"/>
+      <c r="BF9" s="69"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="78"/>
-      <c r="BE10" s="78"/>
-      <c r="BF10" s="79"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="68"/>
+      <c r="AZ10" s="68"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="68"/>
+      <c r="BC10" s="68"/>
+      <c r="BD10" s="68"/>
+      <c r="BE10" s="68"/>
+      <c r="BF10" s="69"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="77" t="s">
+      <c r="AO11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="59"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="78" t="s">
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78"/>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="78"/>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="78"/>
-      <c r="BE11" s="78"/>
-      <c r="BF11" s="79"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="68"/>
+      <c r="BF11" s="69"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="78"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="79"/>
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="68"/>
+      <c r="AV12" s="68"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="68"/>
+      <c r="BE12" s="68"/>
+      <c r="BF12" s="69"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="77" t="s">
+      <c r="AO13" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="78" t="s">
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="78"/>
-      <c r="AZ13" s="78"/>
-      <c r="BA13" s="78"/>
-      <c r="BB13" s="78"/>
-      <c r="BC13" s="78"/>
-      <c r="BD13" s="78"/>
-      <c r="BE13" s="78"/>
-      <c r="BF13" s="79"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="69"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="78"/>
-      <c r="AZ14" s="78"/>
-      <c r="BA14" s="78"/>
-      <c r="BB14" s="78"/>
-      <c r="BC14" s="78"/>
-      <c r="BD14" s="78"/>
-      <c r="BE14" s="78"/>
-      <c r="BF14" s="79"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="69"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="77" t="s">
+      <c r="AO15" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="78" t="s">
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="78"/>
-      <c r="BA15" s="78"/>
-      <c r="BB15" s="78"/>
-      <c r="BC15" s="78"/>
-      <c r="BD15" s="78"/>
-      <c r="BE15" s="78"/>
-      <c r="BF15" s="79"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="69"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="59"/>
-      <c r="AT16" s="59"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="79"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="69"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="77" t="s">
+      <c r="AO17" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="59"/>
-      <c r="AU17" s="78" t="s">
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="78"/>
-      <c r="BA17" s="78"/>
-      <c r="BB17" s="78"/>
-      <c r="BC17" s="78"/>
-      <c r="BD17" s="78"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="79"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="69"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
-      <c r="BC18" s="78"/>
-      <c r="BD18" s="78"/>
-      <c r="BE18" s="78"/>
-      <c r="BF18" s="79"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="69"/>
     </row>
     <row r="19" spans="1:58" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="77" t="s">
+      <c r="AO19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="59"/>
-      <c r="AU19" s="78" t="s">
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="78"/>
-      <c r="BB19" s="78"/>
-      <c r="BC19" s="78"/>
-      <c r="BD19" s="78"/>
-      <c r="BE19" s="78"/>
-      <c r="BF19" s="79"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="69"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="78"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="79"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="69"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="77" t="s">
+      <c r="AO21" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="78" t="s">
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="57"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
+      <c r="AU21" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="78"/>
-      <c r="BB21" s="78"/>
-      <c r="BC21" s="78"/>
-      <c r="BD21" s="78"/>
-      <c r="BE21" s="78"/>
-      <c r="BF21" s="79"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="69"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="78"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="79"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="68"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="68"/>
+      <c r="BE22" s="68"/>
+      <c r="BF22" s="69"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
@@ -3435,98 +3554,382 @@
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="2"/>
-      <c r="BF24" s="3"/>
+      <c r="AO24" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="68"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="68"/>
+      <c r="AZ24" s="68"/>
+      <c r="BA24" s="68"/>
+      <c r="BB24" s="68"/>
+      <c r="BC24" s="68"/>
+      <c r="BD24" s="68"/>
+      <c r="BE24" s="68"/>
+      <c r="BF24" s="69"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="2"/>
-      <c r="BF25" s="3"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="68"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="68"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="68"/>
+      <c r="BC25" s="68"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="69"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="2"/>
-      <c r="BF26" s="3"/>
+      <c r="AO26" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="68"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="68"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="69"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="2"/>
-      <c r="BF27" s="3"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="68"/>
+      <c r="BE27" s="68"/>
+      <c r="BF27" s="69"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="2"/>
-      <c r="BF28" s="3"/>
+      <c r="AO28" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="68"/>
+      <c r="AZ28" s="68"/>
+      <c r="BA28" s="68"/>
+      <c r="BB28" s="68"/>
+      <c r="BC28" s="68"/>
+      <c r="BD28" s="68"/>
+      <c r="BE28" s="68"/>
+      <c r="BF28" s="69"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="2"/>
-      <c r="BF29" s="3"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
+      <c r="BD29" s="68"/>
+      <c r="BE29" s="68"/>
+      <c r="BF29" s="69"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="2"/>
-      <c r="BF30" s="3"/>
+      <c r="AO30" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
+      <c r="BD30" s="68"/>
+      <c r="BE30" s="68"/>
+      <c r="BF30" s="69"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="2"/>
-      <c r="BF31" s="3"/>
+      <c r="AO31" s="67"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
+      <c r="BE31" s="68"/>
+      <c r="BF31" s="69"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="2"/>
-      <c r="BF32" s="3"/>
+      <c r="AO32" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="69"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="2"/>
-      <c r="BF33" s="3"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="68"/>
+      <c r="BE33" s="68"/>
+      <c r="BF33" s="69"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="2"/>
-      <c r="BF34" s="3"/>
+      <c r="AO34" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="69"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="2"/>
-      <c r="BF35" s="3"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="68"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="68"/>
+      <c r="AX35" s="68"/>
+      <c r="AY35" s="68"/>
+      <c r="AZ35" s="68"/>
+      <c r="BA35" s="68"/>
+      <c r="BB35" s="68"/>
+      <c r="BC35" s="68"/>
+      <c r="BD35" s="68"/>
+      <c r="BE35" s="68"/>
+      <c r="BF35" s="69"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="2"/>
-      <c r="BF36" s="3"/>
+      <c r="AO36" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV36" s="68"/>
+      <c r="AW36" s="68"/>
+      <c r="AX36" s="68"/>
+      <c r="AY36" s="68"/>
+      <c r="AZ36" s="68"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="68"/>
+      <c r="BD36" s="68"/>
+      <c r="BE36" s="68"/>
+      <c r="BF36" s="69"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="2"/>
-      <c r="BF37" s="3"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="57"/>
+      <c r="AR37" s="57"/>
+      <c r="AS37" s="57"/>
+      <c r="AT37" s="57"/>
+      <c r="AU37" s="68"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="68"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="69"/>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="2"/>
-      <c r="BF38" s="3"/>
+      <c r="AO38" s="67"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="57"/>
+      <c r="AR38" s="57"/>
+      <c r="AS38" s="57"/>
+      <c r="AT38" s="57"/>
+      <c r="AU38" s="68"/>
+      <c r="AV38" s="68"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="68"/>
+      <c r="AY38" s="68"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="68"/>
+      <c r="BD38" s="68"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="69"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="2"/>
-      <c r="BF39" s="3"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="57"/>
+      <c r="AR39" s="57"/>
+      <c r="AS39" s="57"/>
+      <c r="AT39" s="57"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="68"/>
+      <c r="AW39" s="68"/>
+      <c r="AX39" s="68"/>
+      <c r="AY39" s="68"/>
+      <c r="AZ39" s="68"/>
+      <c r="BA39" s="68"/>
+      <c r="BB39" s="68"/>
+      <c r="BC39" s="68"/>
+      <c r="BD39" s="68"/>
+      <c r="BE39" s="68"/>
+      <c r="BF39" s="69"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
@@ -3643,7 +4046,48 @@
       <c r="BF49" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="49">
+    <mergeCell ref="AO36:AT37"/>
+    <mergeCell ref="AU36:BF37"/>
+    <mergeCell ref="AO38:AT39"/>
+    <mergeCell ref="AU38:BF39"/>
+    <mergeCell ref="AO30:AT31"/>
+    <mergeCell ref="AU30:BF31"/>
+    <mergeCell ref="AO32:AT33"/>
+    <mergeCell ref="AU32:BF33"/>
+    <mergeCell ref="AO34:AT35"/>
+    <mergeCell ref="AU34:BF35"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
     <mergeCell ref="AO21:AT22"/>
     <mergeCell ref="AU21:BF22"/>
     <mergeCell ref="AO15:AT16"/>
@@ -3652,31 +4096,6 @@
     <mergeCell ref="AU17:BF18"/>
     <mergeCell ref="AO19:AT20"/>
     <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3702,25 +4121,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3733,21 +4152,21 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -3836,15 +4255,15 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="80" t="s">
@@ -3863,15 +4282,15 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="80" t="s">
@@ -3890,15 +4309,15 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="80" t="s">
@@ -3917,15 +4336,15 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="80" t="s">
@@ -3950,15 +4369,15 @@
         <v>4</v>
       </c>
       <c r="J10" s="38"/>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="80" t="s">
@@ -3983,15 +4402,15 @@
         <v>20</v>
       </c>
       <c r="J11" s="38"/>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="80" t="s">
@@ -4012,15 +4431,15 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="80" t="s">
@@ -4041,15 +4460,15 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="80" t="s">
@@ -4068,15 +4487,15 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="80"/>
@@ -4089,32 +4508,31 @@
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:Q8"/>
@@ -4124,21 +4542,22 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4164,25 +4583,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4195,21 +4614,21 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -4249,556 +4668,549 @@
         <v>63</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="91"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="91"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="94"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="94"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="91"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="91"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="91"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="42"/>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="91"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C26:Q26"/>
     <mergeCell ref="C24:Q24"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -4813,12 +5225,19 @@
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/200_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
+++ b/200_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F66479-52CF-4184-A979-024BAD74BBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6858F5B-9F78-439F-A3DA-DF5DC1D1B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
   <si>
     <t>作成者</t>
   </si>
@@ -971,6 +971,61 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="3">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox銀行名</t>
+    <rPh sb="7" eb="10">
+      <t>ギンコウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox銀行コード</t>
+    <rPh sb="7" eb="9">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox支店名</t>
+    <rPh sb="7" eb="10">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox支店コード</t>
+    <rPh sb="7" eb="9">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox口座番号</t>
+    <rPh sb="7" eb="9">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextBox口座名義</t>
+    <rPh sb="7" eb="9">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1514,6 +1569,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1529,45 +1593,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1577,6 +1632,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,30 +1662,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,7 +1687,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1639,24 +1712,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2096,50 +2151,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2162,10 +2217,10 @@
         <v>19</v>
       </c>
       <c r="G12" s="48"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2188,42 +2243,42 @@
         <v>21</v>
       </c>
       <c r="G14" s="48"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="48"/>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="47" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="48"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="47" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="48"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
       <c r="N17" s="7" t="s">
         <v>86</v>
       </c>
@@ -2253,6 +2308,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2261,12 +2322,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,52 +2350,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2366,427 +2421,427 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2797,30 +2852,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2837,46 +2908,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2902,210 +2957,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="74" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="75" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="78" t="s">
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="73" t="s">
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="78" t="s">
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="74" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="75" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="78" t="s">
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="79">
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="76">
         <v>44752</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="78" t="s">
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="70" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="72"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="79"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3119,11 +3174,11 @@
       <c r="AO5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
       <c r="AU5" s="68" t="s">
         <v>33</v>
       </c>
@@ -3143,11 +3198,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="67"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
       <c r="AU6" s="68"/>
       <c r="AV6" s="68"/>
       <c r="AW6" s="68"/>
@@ -3167,11 +3222,11 @@
       <c r="AO7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
       <c r="AU7" s="68" t="s">
         <v>35</v>
       </c>
@@ -3191,11 +3246,11 @@
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="67"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
       <c r="AU8" s="68"/>
       <c r="AV8" s="68"/>
       <c r="AW8" s="68"/>
@@ -3215,11 +3270,11 @@
       <c r="AO9" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
       <c r="AU9" s="68" t="s">
         <v>34</v>
       </c>
@@ -3239,11 +3294,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="67"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
       <c r="AU10" s="68"/>
       <c r="AV10" s="68"/>
       <c r="AW10" s="68"/>
@@ -3263,11 +3318,11 @@
       <c r="AO11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="57"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
       <c r="AU11" s="68" t="s">
         <v>36</v>
       </c>
@@ -3287,11 +3342,11 @@
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="67"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
       <c r="AU12" s="68"/>
       <c r="AV12" s="68"/>
       <c r="AW12" s="68"/>
@@ -3311,11 +3366,11 @@
       <c r="AO13" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
       <c r="AU13" s="68" t="s">
         <v>37</v>
       </c>
@@ -3335,11 +3390,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="67"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="59"/>
       <c r="AU14" s="68"/>
       <c r="AV14" s="68"/>
       <c r="AW14" s="68"/>
@@ -3359,11 +3414,11 @@
       <c r="AO15" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
       <c r="AU15" s="68" t="s">
         <v>101</v>
       </c>
@@ -3383,11 +3438,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="67"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="59"/>
       <c r="AU16" s="68"/>
       <c r="AV16" s="68"/>
       <c r="AW16" s="68"/>
@@ -3407,11 +3462,11 @@
       <c r="AO17" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="57"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="59"/>
       <c r="AU17" s="68" t="s">
         <v>101</v>
       </c>
@@ -3431,11 +3486,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="67"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="68"/>
@@ -3455,11 +3510,11 @@
       <c r="AO19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="59"/>
+      <c r="AS19" s="59"/>
+      <c r="AT19" s="59"/>
       <c r="AU19" s="68" t="s">
         <v>102</v>
       </c>
@@ -3479,11 +3534,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="67"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="59"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="59"/>
       <c r="AU20" s="68"/>
       <c r="AV20" s="68"/>
       <c r="AW20" s="68"/>
@@ -3503,11 +3558,11 @@
       <c r="AO21" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
       <c r="AU21" s="68" t="s">
         <v>104</v>
       </c>
@@ -3527,11 +3582,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="67"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="68"/>
       <c r="AW22" s="68"/>
@@ -3557,11 +3612,11 @@
       <c r="AO24" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="57"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="59"/>
       <c r="AU24" s="68" t="s">
         <v>115</v>
       </c>
@@ -3581,11 +3636,11 @@
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="67"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="59"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="59"/>
       <c r="AU25" s="68"/>
       <c r="AV25" s="68"/>
       <c r="AW25" s="68"/>
@@ -3605,11 +3660,11 @@
       <c r="AO26" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
       <c r="AU26" s="68" t="s">
         <v>114</v>
       </c>
@@ -3629,11 +3684,11 @@
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="67"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
       <c r="AU27" s="68"/>
       <c r="AV27" s="68"/>
       <c r="AW27" s="68"/>
@@ -3653,11 +3708,11 @@
       <c r="AO28" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
       <c r="AU28" s="68" t="s">
         <v>116</v>
       </c>
@@ -3677,11 +3732,11 @@
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="67"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
       <c r="AU29" s="68"/>
       <c r="AV29" s="68"/>
       <c r="AW29" s="68"/>
@@ -3701,11 +3756,11 @@
       <c r="AO30" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
       <c r="AU30" s="68" t="s">
         <v>117</v>
       </c>
@@ -3725,11 +3780,11 @@
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="67"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
       <c r="AU31" s="68"/>
       <c r="AV31" s="68"/>
       <c r="AW31" s="68"/>
@@ -3749,11 +3804,11 @@
       <c r="AO32" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
       <c r="AU32" s="68" t="s">
         <v>120</v>
       </c>
@@ -3773,11 +3828,11 @@
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="67"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
       <c r="AU33" s="68"/>
       <c r="AV33" s="68"/>
       <c r="AW33" s="68"/>
@@ -3797,11 +3852,11 @@
       <c r="AO34" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
       <c r="AU34" s="68" t="s">
         <v>118</v>
       </c>
@@ -3821,11 +3876,11 @@
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="67"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="59"/>
       <c r="AU35" s="68"/>
       <c r="AV35" s="68"/>
       <c r="AW35" s="68"/>
@@ -3845,11 +3900,11 @@
       <c r="AO36" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="59"/>
       <c r="AU36" s="68" t="s">
         <v>119</v>
       </c>
@@ -3869,11 +3924,11 @@
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="67"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="57"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="59"/>
+      <c r="AT37" s="59"/>
       <c r="AU37" s="68"/>
       <c r="AV37" s="68"/>
       <c r="AW37" s="68"/>
@@ -3891,11 +3946,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="67"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="57"/>
-      <c r="AT38" s="57"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="59"/>
+      <c r="AT38" s="59"/>
       <c r="AU38" s="68"/>
       <c r="AV38" s="68"/>
       <c r="AW38" s="68"/>
@@ -3913,11 +3968,11 @@
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="67"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="57"/>
-      <c r="AR39" s="57"/>
-      <c r="AS39" s="57"/>
-      <c r="AT39" s="57"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="59"/>
       <c r="AU39" s="68"/>
       <c r="AV39" s="68"/>
       <c r="AW39" s="68"/>
@@ -4047,6 +4102,45 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -4057,45 +4151,6 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4109,10 +4164,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4121,25 +4176,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4149,24 +4204,26 @@
       <c r="P1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="32" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -4176,7 +4233,9 @@
       <c r="P2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="37"/>
+      <c r="Q2" s="35">
+        <v>45757</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="80" t="s">
@@ -4255,15 +4314,15 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="80" t="s">
@@ -4282,15 +4341,15 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="80" t="s">
@@ -4309,15 +4368,15 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="80" t="s">
@@ -4336,15 +4395,15 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="88" t="s">
+      <c r="K9" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="80" t="s">
@@ -4369,15 +4428,15 @@
         <v>4</v>
       </c>
       <c r="J10" s="38"/>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="80" t="s">
@@ -4402,15 +4461,15 @@
         <v>20</v>
       </c>
       <c r="J11" s="38"/>
-      <c r="K11" s="88" t="s">
+      <c r="K11" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="80" t="s">
@@ -4431,15 +4490,15 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="80" t="s">
@@ -4460,15 +4519,15 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="88" t="s">
+      <c r="K13" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="80" t="s">
@@ -4487,37 +4546,264 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="80" t="s">
+        <v>107</v>
+      </c>
       <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="80" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="80"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
+      <c r="K15" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="58">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:Q15"/>
@@ -4527,37 +4813,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4572,7 +4827,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -4583,25 +4838,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4614,21 +4869,21 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -4668,549 +4923,556 @@
         <v>63</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="91"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="91"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="91"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="42"/>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
     <mergeCell ref="C24:Q24"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -5225,19 +5487,12 @@
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
